--- a/data/trans_orig/P14B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A6BB95B-2791-4B75-8B40-ED707CDEA00E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD22B95-A111-48DE-AC05-F4A31690AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{FC5CC71B-D504-4902-BD47-3322EC7ACC72}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B5AB959-787E-432F-8A44-2639344AEBA6}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -109,13 +109,13 @@
     <t>86,57%</t>
   </si>
   <si>
-    <t>64,4%</t>
+    <t>64,38%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>35,6%</t>
+    <t>35,62%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -127,13 +127,13 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>80,89%</t>
+    <t>80,91%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>76,03%</t>
+    <t>76,26%</t>
   </si>
   <si>
     <t>48,14%</t>
@@ -142,13 +142,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>19,11%</t>
+    <t>19,09%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>23,97%</t>
+    <t>23,74%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -160,19 +160,19 @@
     <t>89,54%</t>
   </si>
   <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>70,66%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
   </si>
   <si>
     <t>46,92%</t>
@@ -181,19 +181,19 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>29,34%</t>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -205,13 +205,13 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>73,93%</t>
+    <t>73,77%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>72,17%</t>
+    <t>71,36%</t>
   </si>
   <si>
     <t>33,25%</t>
@@ -220,67 +220,67 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>26,07%</t>
+    <t>26,23%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>27,83%</t>
+    <t>28,64%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>82,89%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
+    <t>81,14%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
   </si>
   <si>
     <t>41,29%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>85,4%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -334,19 +334,19 @@
     <t>76,18%</t>
   </si>
   <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>90,27%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>61,02%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -355,19 +355,19 @@
     <t>23,82%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
+    <t>9,73%</t>
+  </si>
+  <si>
+    <t>40,22%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>38,98%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>48,98%</t>
@@ -376,19 +376,19 @@
     <t>84,93%</t>
   </si>
   <si>
-    <t>72,0%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
+    <t>70,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
+    <t>68,26%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
   </si>
   <si>
     <t>51,02%</t>
@@ -397,19 +397,19 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -418,19 +418,19 @@
     <t>89,87%</t>
   </si>
   <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
+    <t>75,89%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -439,67 +439,73 @@
     <t>10,13%</t>
   </si>
   <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>76,0%</t>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,45%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
+    <t>75,72%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>24,0%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>24,28%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -520,55 +526,55 @@
     <t>80,43%</t>
   </si>
   <si>
-    <t>54,88%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
+    <t>51,19%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
   </si>
   <si>
     <t>19,57%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>45,12%</t>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>48,81%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>91,04%</t>
   </si>
   <si>
     <t>84,24%</t>
   </si>
   <si>
-    <t>71,16%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
   </si>
   <si>
     <t>15,76%</t>
   </si>
   <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
   </si>
   <si>
     <t>69,43%</t>
@@ -577,19 +583,19 @@
     <t>81,35%</t>
   </si>
   <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
   </si>
   <si>
     <t>82,91%</t>
   </si>
   <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
+    <t>73,28%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
   </si>
   <si>
     <t>30,57%</t>
@@ -598,19 +604,19 @@
     <t>18,65%</t>
   </si>
   <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
   </si>
   <si>
     <t>17,09%</t>
   </si>
   <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>26,72%</t>
   </si>
   <si>
     <t>67,38%</t>
@@ -622,19 +628,19 @@
     <t>76,34%</t>
   </si>
   <si>
-    <t>65,72%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
+    <t>67,23%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>83,09%</t>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
   </si>
   <si>
     <t>32,62%</t>
@@ -646,67 +652,61 @@
     <t>23,66%</t>
   </si>
   <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
   </si>
   <si>
     <t>24,16%</t>
   </si>
   <si>
-    <t>16,91%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>69,2%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
   </si>
   <si>
     <t>79,09%</t>
   </si>
   <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
+    <t>73,97%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>80,23%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>20,91%</t>
   </si>
   <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>26,03%</t>
   </si>
   <si>
     <t>19,77%</t>
   </si>
   <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
   </si>
 </sst>
 </file>
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9EFF8CA-84A8-4BAA-A1DC-2EC316A15173}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F372F184-6747-4BA4-8BE4-9C9F367F3D27}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2307,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A92EE6-C1B0-4751-A526-C4A770E81861}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173D4BBC-F5B9-47D4-831A-744B6B7FA731}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3370,7 +3370,7 @@
         <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>107</v>
@@ -3379,13 +3379,13 @@
         <v>115329</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3400,13 +3400,13 @@
         <v>3202</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H23" s="7">
         <v>18</v>
@@ -3415,13 +3415,13 @@
         <v>20586</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M23" s="7">
         <v>21</v>
@@ -3430,13 +3430,13 @@
         <v>23787</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3514,7 +3514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4229F9A0-2D0A-4A4E-A98F-FF7C1C1311A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65A44BE-9DC2-4E21-A04F-8628A9172946}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3531,7 +3531,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3802,7 +3802,7 @@
         <v>159</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>18</v>
@@ -3817,7 +3817,7 @@
         <v>1541</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="P7" s="7" t="s">
         <v>18</v>
@@ -3853,7 +3853,7 @@
         <v>1020</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>18</v>
@@ -3868,7 +3868,7 @@
         <v>1020</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>18</v>
@@ -3955,13 +3955,13 @@
         <v>9281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M10" s="7">
         <v>14</v>
@@ -3970,13 +3970,13 @@
         <v>9281</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4004,13 +4004,13 @@
         <v>2259</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -4019,13 +4019,13 @@
         <v>2259</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4106,13 +4106,13 @@
         <v>23776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4121,13 +4121,13 @@
         <v>29039</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4157,13 +4157,13 @@
         <v>5433</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M14" s="7">
         <v>9</v>
@@ -4172,13 +4172,13 @@
         <v>5433</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,7 +4249,7 @@
         <v>16</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>20</v>
@@ -4261,13 +4261,13 @@
         <v>40775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
         <v>72</v>
@@ -4276,13 +4276,13 @@
         <v>45344</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,7 +4303,7 @@
         <v>83</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -4312,13 +4312,13 @@
         <v>9347</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -4327,13 +4327,13 @@
         <v>9347</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,10 +4401,10 @@
         <v>2437</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
@@ -4416,13 +4416,13 @@
         <v>46026</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="M19" s="7">
         <v>85</v>
@@ -4431,13 +4431,13 @@
         <v>48463</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4452,13 @@
         <v>1180</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H20" s="7">
         <v>25</v>
@@ -4467,13 +4467,13 @@
         <v>14262</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M20" s="7">
         <v>27</v>
@@ -4482,13 +4482,13 @@
         <v>15442</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,10 +4556,10 @@
         <v>13651</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>207</v>
+        <v>172</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>16</v>
@@ -4571,13 +4571,13 @@
         <v>122262</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M22" s="7">
         <v>217</v>
@@ -4586,13 +4586,13 @@
         <v>135913</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,7 +4607,7 @@
         <v>1180</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>18</v>

--- a/data/trans_orig/P14B14-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14B14-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD22B95-A111-48DE-AC05-F4A31690AF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{39CFD677-58F7-4727-9E3F-43C1CC4F11CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6B5AB959-787E-432F-8A44-2639344AEBA6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BF2863E9-DE14-4DB0-B1EB-1E6C8A0B4E50}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -85,7 +85,7 @@
     <t>77,4%</t>
   </si>
   <si>
-    <t>23,26%</t>
+    <t>5,82%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -97,7 +97,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>76,74%</t>
+    <t>94,18%</t>
   </si>
   <si>
     <t>100%</t>
@@ -109,13 +109,13 @@
     <t>86,57%</t>
   </si>
   <si>
-    <t>64,38%</t>
+    <t>59,97%</t>
   </si>
   <si>
     <t>13,43%</t>
   </si>
   <si>
-    <t>35,62%</t>
+    <t>40,03%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -127,13 +127,13 @@
     <t>95,43%</t>
   </si>
   <si>
-    <t>80,91%</t>
+    <t>79,41%</t>
   </si>
   <si>
     <t>92,16%</t>
   </si>
   <si>
-    <t>76,26%</t>
+    <t>75,13%</t>
   </si>
   <si>
     <t>48,14%</t>
@@ -142,13 +142,13 @@
     <t>4,57%</t>
   </si>
   <si>
-    <t>19,09%</t>
+    <t>20,59%</t>
   </si>
   <si>
     <t>7,84%</t>
   </si>
   <si>
-    <t>23,74%</t>
+    <t>24,87%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -160,19 +160,19 @@
     <t>89,54%</t>
   </si>
   <si>
-    <t>73,98%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
   </si>
   <si>
     <t>86,99%</t>
   </si>
   <si>
-    <t>71,95%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>46,92%</t>
@@ -181,19 +181,19 @@
     <t>10,46%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
   </si>
   <si>
     <t>13,01%</t>
   </si>
   <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -205,13 +205,13 @@
     <t>94,89%</t>
   </si>
   <si>
-    <t>73,77%</t>
+    <t>73,35%</t>
   </si>
   <si>
     <t>90,76%</t>
   </si>
   <si>
-    <t>71,36%</t>
+    <t>71,77%</t>
   </si>
   <si>
     <t>33,25%</t>
@@ -220,19 +220,19 @@
     <t>5,11%</t>
   </si>
   <si>
-    <t>26,23%</t>
+    <t>26,65%</t>
   </si>
   <si>
     <t>9,24%</t>
   </si>
   <si>
-    <t>28,64%</t>
+    <t>28,23%</t>
   </si>
   <si>
     <t>58,71%</t>
   </si>
   <si>
-    <t>15,14%</t>
+    <t>14,91%</t>
   </si>
   <si>
     <t>87,18%</t>
@@ -241,19 +241,19 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>82,89%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>88,71%</t>
   </si>
   <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>41,29%</t>
@@ -262,31 +262,31 @@
     <t>12,82%</t>
   </si>
   <si>
-    <t>84,86%</t>
+    <t>85,09%</t>
   </si>
   <si>
     <t>8,87%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
   </si>
   <si>
     <t>11,29%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya fibromialgia le limita en 2015 (Tasa respuesta: 1,95%)</t>
+    <t>Población cuya fibromialgia le limita en 2016 (Tasa respuesta: 1,95%)</t>
   </si>
   <si>
     <t>0%</t>
@@ -334,19 +334,19 @@
     <t>76,18%</t>
   </si>
   <si>
-    <t>59,78%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
+    <t>62,81%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
   </si>
   <si>
     <t>36,25%</t>
@@ -355,19 +355,19 @@
     <t>23,82%</t>
   </si>
   <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>40,22%</t>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
   </si>
   <si>
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>39,37%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
   </si>
   <si>
     <t>48,98%</t>
@@ -376,19 +376,19 @@
     <t>84,93%</t>
   </si>
   <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
+    <t>70,01%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
   </si>
   <si>
     <t>81,73%</t>
   </si>
   <si>
-    <t>68,26%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
   </si>
   <si>
     <t>51,02%</t>
@@ -397,19 +397,19 @@
     <t>15,07%</t>
   </si>
   <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
   </si>
   <si>
     <t>18,27%</t>
   </si>
   <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -418,19 +418,19 @@
     <t>89,87%</t>
   </si>
   <si>
-    <t>75,89%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
   </si>
   <si>
     <t>90,64%</t>
   </si>
   <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
   </si>
   <si>
     <t>56,93%</t>
@@ -439,73 +439,73 @@
     <t>10,13%</t>
   </si>
   <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
   </si>
   <si>
     <t>9,36%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
   </si>
   <si>
     <t>77,21%</t>
   </si>
   <si>
-    <t>45,46%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
   </si>
   <si>
     <t>83,54%</t>
   </si>
   <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
   </si>
   <si>
     <t>82,9%</t>
   </si>
   <si>
-    <t>75,72%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>75,19%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
   </si>
   <si>
     <t>22,79%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>54,54%</t>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
   </si>
   <si>
     <t>16,46%</t>
   </si>
   <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>17,1%</t>
   </si>
   <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>24,28%</t>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
   </si>
   <si>
     <t>Población cuya fibromialgia le limita en 2023 (Tasa respuesta: 3,11%)</t>
@@ -1118,7 +1118,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F372F184-6747-4BA4-8BE4-9C9F367F3D27}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2A83F3-7E49-45E7-88D3-C372CA8C1F11}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2307,7 +2307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{173D4BBC-F5B9-47D4-831A-744B6B7FA731}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0DC3691-E0AA-4FED-AE54-5D6DE88878AE}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3514,7 +3514,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A65A44BE-9DC2-4E21-A04F-8628A9172946}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DA9D9A-03B9-4B04-B3E1-E69038EFCD35}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
